--- a/Datos/Anuario2024/130211_ActividadesCulturalesLaMutant.xlsx
+++ b/Datos/Anuario2024/130211_ActividadesCulturalesLaMutant.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="124" r:id="rId1"/>
+    <sheet name="1" sheetId="123" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -49,75 +55,116 @@
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Conciertos</t>
+  </si>
+  <si>
+    <t>Asistentes</t>
+  </si>
+  <si>
+    <t>Proyecciones cinematográficas</t>
+  </si>
+  <si>
+    <t>Teatro</t>
+  </si>
+  <si>
+    <t>Danza</t>
+  </si>
+  <si>
+    <t>La Mutant</t>
+  </si>
+  <si>
+    <t>Otros formatos</t>
+  </si>
+  <si>
+    <t>Circo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: La Mutant. Espacio de artes vivas. Servicio de Acción Cultural. Ayuntamiento de València. </t>
+  </si>
+  <si>
+    <t>ACTIVIDADES CULTURALES DE LA MUTANT</t>
+  </si>
+  <si>
+    <t>1. La Mutant. Espacio de artes vivas. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,46 +194,46 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,6 +241,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -262,13 +310,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -509,8 +575,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5011,8 +5077,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5712,186 +5778,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="50.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="inlineStr">
-        <is>
-          <t>ACTIVIDADES CULTURALES DE LA MUTANT</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="35.140625" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="18">
-      <c r="A1" s="19" t="inlineStr">
-        <is>
-          <t>1. La Mutant. Espacio de artes vivas. 2023</t>
-        </is>
+    <row r="1" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
       </c>
-      <c r="B1" s="17" t="n"/>
+      <c r="B1" s="17"/>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="14" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="14"/>
     </row>
-    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="16">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>La Mutant</t>
-        </is>
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
       </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Asistentes</t>
-        </is>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Conciertos</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>755</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Danza</t>
-        </is>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="13">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7">
         <v>1239</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Teatro</t>
-        </is>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>554</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Circo</t>
-        </is>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>483</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>Proyecciones cinematográficas</t>
-        </is>
-      </c>
-      <c r="B8" s="12" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
         <v>502</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Otros formatos</t>
-        </is>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="13">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>969</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: La Mutant. Espacio de artes vivas. Servicio de Acción Cultural. Ayuntamiento de València. </t>
-        </is>
+    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="15" t="n"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>